--- a/reports/security_reports.xlsx
+++ b/reports/security_reports.xlsx
@@ -3192,7 +3192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3208,30 +3208,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Tool Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>INFO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CRITICAL</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>UNKNOWN</t>
         </is>
@@ -3243,17 +3248,19 @@
           <t>Semgrep</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SAST</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3261,6 +3268,9 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3268,22 +3278,27 @@
           <t>OSV_Vulnerabilities</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>10</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3293,8 +3308,10 @@
           <t>Tfsec_Findings</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IaC Scan</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -3311,6 +3328,9 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3318,8 +3338,10 @@
           <t>Gitleaks</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Secret Scan</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -3334,6 +3356,9 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
